--- a/data/trans_orig/CAMINAR_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se camina</t>
+          <t>Nº medio de minutos/día en los que se camina (tasa de respuesta: 97,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CAMINAR_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,88</t>
+          <t>85,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,95</t>
+          <t>93,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,46</t>
+          <t>89,54</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,88; 97,84</t>
+          <t>78,61; 92,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,6; 65,47</t>
+          <t>53,78; 65,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>41,44; 49,36</t>
+          <t>41,44; 48,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,78; 105,19</t>
+          <t>86,18; 103,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,32; 69,44</t>
+          <t>56,37; 69,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,43; 49,75</t>
+          <t>43,54; 49,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>85,62; 98,24</t>
+          <t>84,43; 95,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>56,79; 65,66</t>
+          <t>56,14; 65,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,33; 48,41</t>
+          <t>43,43; 48,48</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,94</t>
+          <t>83,64</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,83</t>
+          <t>80,69</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,13</t>
+          <t>82,05</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,52; 89,32</t>
+          <t>74,68; 101,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>56,09; 70,79</t>
+          <t>56,16; 70,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,24; 61,89</t>
+          <t>48,53; 62,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,04; 84,27</t>
+          <t>73,82; 89,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,67; 59,54</t>
+          <t>47,79; 60,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,21; 54,21</t>
+          <t>45,34; 54,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>74,56; 84,44</t>
+          <t>76,35; 92,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,78; 63,23</t>
+          <t>53,95; 63,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>47,75; 55,6</t>
+          <t>47,72; 55,72</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>100,59</t>
+          <t>99,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,75</t>
+          <t>88,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>94,83</t>
+          <t>96,85</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,33; 112,48</t>
+          <t>90,16; 113,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,4; 64,91</t>
+          <t>33,95; 64,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46,28; 70,3</t>
+          <t>45,39; 68,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,47; 96,07</t>
+          <t>76,52; 104,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,36; 56,26</t>
+          <t>37,6; 57,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,69; 49,95</t>
+          <t>35,33; 51,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>88,45; 104,77</t>
+          <t>88,94; 107,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,22; 59,62</t>
+          <t>34,75; 59,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>43,66; 60,2</t>
+          <t>43,63; 60,42</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>94,39</t>
+          <t>98,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,93</t>
+          <t>88,51</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,45</t>
+          <t>93,2</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,85; 101,91</t>
+          <t>88,99; 110,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,17; 68,57</t>
+          <t>53,78; 67,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,43; 106,94</t>
+          <t>50,88; 108,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,6; 92,51</t>
+          <t>80,62; 100,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,45; 148,79</t>
+          <t>52,16; 147,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,6; 55,11</t>
+          <t>42,43; 56,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>84,25; 94,94</t>
+          <t>87,1; 101,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,64; 125,19</t>
+          <t>55,67; 125,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,5; 74,75</t>
+          <t>48,38; 71,88</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>109,88</t>
+          <t>117,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>76,79</t>
+          <t>83,05</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>87,87</t>
+          <t>95,65</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,34; 127,86</t>
+          <t>101,43; 145,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,56; 78,68</t>
+          <t>54,75; 78,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,39; 79,07</t>
+          <t>38,88; 84,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,33; 84,45</t>
+          <t>74,1; 95,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,81; 57,55</t>
+          <t>46,08; 57,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,55; 72,53</t>
+          <t>45,91; 71,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,65; 95,69</t>
+          <t>86,66; 108,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>51,09; 61,15</t>
+          <t>51,41; 61,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,51; 67,33</t>
+          <t>45,91; 67,19</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>86,02</t>
+          <t>90,83</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,52</t>
+          <t>71,41</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,29</t>
+          <t>76,85</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,52; 100,63</t>
+          <t>78,27; 105,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,25; 88,51</t>
+          <t>50,95; 86,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>39,02; 66,16</t>
+          <t>40,43; 69,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,35; 72,97</t>
+          <t>64,38; 82,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,84; 43,02</t>
+          <t>34,89; 43,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,74; 44,4</t>
+          <t>31,66; 44,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63,81; 76,3</t>
+          <t>70,36; 85,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>40,73; 52,74</t>
+          <t>40,77; 52,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,1; 48,38</t>
+          <t>36,76; 49,08</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>93,86</t>
+          <t>94,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>80,91</t>
+          <t>85,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>86,89</t>
+          <t>89,65</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,68</t>
+          <t>89,93; 100,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,15; 62,62</t>
+          <t>48,52; 62,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,03; 62,99</t>
+          <t>49,25; 64,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>77,79; 84,57</t>
+          <t>81,53; 89,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,82; 99,11</t>
+          <t>49,63; 97,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,1; 50,44</t>
+          <t>44,79; 50,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,87</t>
+          <t>86,81; 92,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>52,98; 80,24</t>
+          <t>52,62; 81,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>47,88; 54,84</t>
+          <t>47,99; 54,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CAMINAR_TIEMPO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CAMINAR_TIEMPO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>59,03</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>44,69</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82,31</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>85,23</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>59,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>82,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>44,69</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>62,14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46,37</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77,91</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>93,52</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>62,01</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>77,91</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>46,37</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>60,44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45,54</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>80,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>89,54</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>60,41</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>80,18</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>45,54</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>53,76; 65,22</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>41,44; 48,75</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73,8; 93,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>78,61; 92,96</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>53,78; 65,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>73,8; 93,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>41,44; 48,75</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>56,83; 68,67</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43,54; 49,77</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>71,07; 87,31</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>86,18; 103,46</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>56,37; 69,05</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>71,07; 87,31</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>43,54; 49,77</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>56,51; 64,84</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>43,43; 48,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>74,79; 86,96</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>84,43; 95,87</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>56,14; 65,18</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>74,79; 86,96</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>43,43; 48,48</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>62,19</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>54,49</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89,52</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>83,64</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>62,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>89,52</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>54,49</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>52,63</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49,38</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72,24</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>80,69</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>53,28</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>72,24</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>49,38</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>57,83</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,54</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>80,13</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>82,05</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>58,09</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>80,13</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>51,54</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>56,21; 70,52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>48,53; 62,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78,19; 103,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>74,68; 101,9</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>56,16; 70,16</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>78,19; 103,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>48,53; 62,32</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>47,48; 59,36</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45,34; 54,75</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>64,43; 81,58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>73,82; 89,52</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>47,79; 60,53</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>64,43; 81,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>45,34; 54,75</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>53,7; 63,12</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>47,72; 55,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>73,6; 88,72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>76,35; 92,16</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>53,95; 63,62</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>73,6; 88,72</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>47,72; 55,72</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>64,58</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>55,16</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91,69</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>99,92</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>45,22</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>91,69</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>55,16</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>44,89</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>41,1</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>67,01</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>88,27</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,91</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>67,01</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>41,1</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>58,63</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>50,51</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>83,78</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>96,85</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>45,34</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>83,78</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>50,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>56,44; 75,94</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>45,39; 68,2</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80,67; 108,3</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>90,16; 113,65</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>33,95; 64,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>80,67; 108,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>45,39; 68,2</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>36,79; 55,74</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35,33; 51,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>56,67; 83,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>76,52; 104,97</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>37,6; 57,8</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>56,67; 83,06</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>35,33; 51,16</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>51,72; 66,13</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>43,63; 60,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>75,27; 95,26</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>88,94; 107,36</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>34,75; 59,47</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>75,27; 95,26</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>43,63; 60,42</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>61,17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64,58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>94,09</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>98,12</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>59,86</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>94,09</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>64,58</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>54,28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48,08</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>90,58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>88,51</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>97,34</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>90,58</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>48,08</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>58,1</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>56,34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>92,32</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>93,2</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>80,38</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>92,32</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>56,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>55,35; 68,25</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50,88; 108,7</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>85,68; 103,88</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>88,99; 110,39</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>53,78; 67,56</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>85,68; 103,88</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>50,88; 108,7</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>49,68; 59,53</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>42,43; 56,53</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>81,38; 100,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>80,62; 100,82</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>52,16; 147,52</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>81,38; 100,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>42,43; 56,53</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>54,36; 62,57</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>48,38; 71,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85,86; 98,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>87,1; 101,39</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>55,67; 125,0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>85,86; 98,89</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>48,38; 71,88</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>61,24</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>51,48</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>117,01</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>65,59</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>86,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>51,48</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>49,65</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55,47</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>80,33</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>83,05</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>51,13</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>80,33</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>55,47</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>54,06</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>53,98</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>83,58</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>95,65</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>55,88</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>83,58</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>53,98</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>52,06; 72,26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>38,88; 84,04</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75,26; 101,21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>101,43; 145,59</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>54,75; 78,1</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>75,26; 101,21</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>38,88; 84,04</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>45,51; 55,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>45,91; 71,8</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69,67; 96,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>74,1; 95,56</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>46,08; 57,89</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>69,67; 96,89</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>45,91; 71,8</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>49,9; 59,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>45,91; 67,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>75,88; 95,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>86,66; 108,68</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>51,41; 61,19</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>75,88; 95,1</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>45,91; 67,19</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>66,93</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50,55</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34,61</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>90,83</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>65,35</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>34,61</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>50,55</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>37,87</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37,28</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53,22</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>71,41</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>38,61</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>53,22</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>37,28</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>44,72</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41,67</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44,81</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>76,85</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>45,36</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>44,81</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>41,67</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>53,53; 84,98</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40,43; 69,91</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>19,94; 48,11</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>78,27; 105,32</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>50,95; 86,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>19,94; 48,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>40,43; 69,91</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>34,45; 41,99</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31,66; 44,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32,73; 76,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>64,38; 82,27</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>34,89; 43,13</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>32,73; 76,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>31,66; 44,43</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>40,7; 50,52</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36,76; 49,08</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32,23; 58,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>70,36; 85,15</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>40,77; 52,0</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>32,23; 58,82</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>36,76; 49,08</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>61,83</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>53,47</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>88,45</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>94,75</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>57,63</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>88,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>53,47</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>49,85</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>47,54</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>79,63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>85,0</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>63,49</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>79,63</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>47,54</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>55,64</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>50,37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>84,16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>89,65</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>60,65</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>84,16</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>50,37</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>58,7; 65,28</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49,25; 64,2</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83,42; 93,51</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>89,93; 100,21</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>48,52; 62,58</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>83,42; 93,51</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>49,25; 64,2</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>47,76; 52,11</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>44,79; 50,15</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>75,18; 84,16</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>81,53; 89,15</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>49,63; 97,55</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>75,18; 84,16</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>44,79; 50,15</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>53,72; 57,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>47,99; 54,41</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>80,82; 87,43</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>86,81; 92,97</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>52,62; 81,59</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>80,82; 87,43</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>47,99; 54,41</t>
         </is>
       </c>
     </row>
